--- a/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
+++ b/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130800F0-76A4-014D-9A38-ED279F583011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA759DEC-3D29-7540-867A-0D69230F7338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" activeTab="3" xr2:uid="{170867EC-D2EC-7445-BC7C-BFB59F461834}"/>
   </bookViews>
@@ -5286,8 +5286,8 @@
   <dimension ref="A1:XFD85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
+++ b/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA759DEC-3D29-7540-867A-0D69230F7338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17CA04C-3318-A747-9E79-D2187B6D8F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" activeTab="3" xr2:uid="{170867EC-D2EC-7445-BC7C-BFB59F461834}"/>
   </bookViews>
@@ -5287,7 +5287,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
+++ b/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17CA04C-3318-A747-9E79-D2187B6D8F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD84CD5-6737-EE46-8DA6-AB999D60DDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" activeTab="3" xr2:uid="{170867EC-D2EC-7445-BC7C-BFB59F461834}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" activeTab="2" xr2:uid="{170867EC-D2EC-7445-BC7C-BFB59F461834}"/>
   </bookViews>
   <sheets>
     <sheet name="Wafer Version" sheetId="1" r:id="rId1"/>
@@ -4526,9 +4526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F353F3-A888-EF4C-A5D1-01CB9F60D9BA}">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="D47:G47"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5285,9 +5285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BC4121-80F7-244E-AAD7-C55BBDDD09C8}">
   <dimension ref="A1:XFD85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
+++ b/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD84CD5-6737-EE46-8DA6-AB999D60DDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF089FB4-8A1D-E249-BFB6-C844FF12721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" activeTab="2" xr2:uid="{170867EC-D2EC-7445-BC7C-BFB59F461834}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17777" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17782" uniqueCount="186">
   <si>
     <t>https://legiit.com/buyer/order-requirements/LE1754350491476366</t>
   </si>
@@ -607,12 +607,27 @@
   <si>
     <t>////</t>
   </si>
+  <si>
+    <t>download the excel spreadsheet!</t>
+  </si>
+  <si>
+    <t>200+ sites with active city niche combinations</t>
+  </si>
+  <si>
+    <t>Detroit &amp; Chicago Metro Areas</t>
+  </si>
+  <si>
+    <t>(download below this video)</t>
+  </si>
+  <si>
+    <t>DeanConsultGroup.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -667,6 +682,29 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -740,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -778,6 +816,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4524,11 +4580,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F353F3-A888-EF4C-A5D1-01CB9F60D9BA}">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4618,664 +4674,716 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E15">
-        <v>64</v>
+    <row r="13" spans="1:20" ht="32" x14ac:dyDescent="0.4">
+      <c r="E13" s="36" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
+      <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="2">
-        <v>45873</v>
+    <row r="17" spans="5:5" ht="32" x14ac:dyDescent="0.4">
+      <c r="E17" s="35" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>3</v>
+    <row r="18" spans="5:5" ht="32" x14ac:dyDescent="0.4">
+      <c r="E18" s="35" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="6" t="s">
-        <v>4</v>
+    <row r="19" spans="5:5" ht="32" x14ac:dyDescent="0.4">
+      <c r="E19" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" ht="32" x14ac:dyDescent="0.4">
+      <c r="E20" s="34" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="31">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="28"/>
+    </row>
+    <row r="37" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C47" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M47" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N47" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="O47" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C48" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L48" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="O48" s="21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C49" s="7" t="s">
+      <c r="E49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C59" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L49" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M49" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="N49" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C50" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="M50" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N50" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="K51" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="L51" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M51" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="N51" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O51" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C52" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="M52" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N52" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O52" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C53" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="L53" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="N53" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C54" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H54" s="28">
-        <v>19124289049</v>
-      </c>
-      <c r="I54" s="28"/>
-      <c r="O54" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C55" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" t="s">
-        <v>173</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I55" s="28"/>
-      <c r="O55" s="21"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C56" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>171</v>
+      <c r="D59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N59" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O59" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L60" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N60" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C61" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="N61" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C62" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K62" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L62" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M62" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N62" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L63" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M63" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="N63" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O63" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C64" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L64" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M64" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N64" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C65" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K65" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L65" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N65" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="O65" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C66" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H66" s="28">
+        <v>19124289049</v>
+      </c>
+      <c r="I66" s="28"/>
+      <c r="O66" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C67" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" s="28"/>
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C68" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C72" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="5" t="s">
+      <c r="D72" s="11"/>
+      <c r="E72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="L72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N72" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E71" t="s">
+    <row r="81" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E79" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E80" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E82" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E83" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" t="s">
-        <v>29</v>
+      <c r="E84" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E85" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E86" s="7" t="s">
-        <v>14</v>
+      <c r="E85" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E87" s="7" t="s">
-        <v>15</v>
+      <c r="F87" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E88" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E89" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E90" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    <row r="90" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E91" s="7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E92" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E93" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E94" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E95" s="7" t="s">
-        <v>23</v>
+      <c r="E95" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E96" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E97" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E98" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E99" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E100" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E101" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E102" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E103" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E104" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E105" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E106" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E107" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E108" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E97" s="7" t="s">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E109" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E102" s="1" t="s">
+    <row r="114" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E114" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E105" t="s">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E107" s="9" t="s">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E119" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E108" t="s">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E31">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F81" r:id="rId1" xr:uid="{809CFA6E-0857-0340-8166-BEB937797CE5}"/>
+    <hyperlink ref="F93" r:id="rId1" xr:uid="{809CFA6E-0857-0340-8166-BEB937797CE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
+++ b/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF089FB4-8A1D-E249-BFB6-C844FF12721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD5DF8-966E-C049-9113-89AA4D8C8B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" activeTab="2" xr2:uid="{170867EC-D2EC-7445-BC7C-BFB59F461834}"/>
   </bookViews>
@@ -4584,7 +4584,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
+++ b/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/SDDX - snefcopy - RDAC Citations Order Manager 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/09 August-01 StormBasin/194 SDDX - snefcopy - RDAC Citations Order Manager 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD5DF8-966E-C049-9113-89AA4D8C8B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22876A32-F404-054B-B448-9EBF05173BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" activeTab="2" xr2:uid="{170867EC-D2EC-7445-BC7C-BFB59F461834}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Plain Grid Version (3)" sheetId="5" r:id="rId4"/>
     <sheet name="sitespren db table" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17782" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17787" uniqueCount="191">
   <si>
     <t>https://legiit.com/buyer/order-requirements/LE1754350491476366</t>
   </si>
@@ -622,12 +622,47 @@
   <si>
     <t>DeanConsultGroup.com</t>
   </si>
+  <si>
+    <t>• Business Center With A Fake Suite #</t>
+  </si>
+  <si>
+    <r>
+      <t>• Business Center With A Real Suite #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF080809"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> (though not yours)</t>
+    </r>
+  </si>
+  <si>
+    <t>• Random House</t>
+  </si>
+  <si>
+    <t>• Random Business</t>
+  </si>
+  <si>
+    <r>
+      <t>• Non-Existent Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF080809"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t> (In Between 2 Real Ones)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -708,6 +743,16 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF080809"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF080809"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -778,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -834,6 +879,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1237,7 +1283,7 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
@@ -1248,7 +1294,7 @@
     <col min="12" max="12" width="1.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="30" customFormat="1">
       <c r="A1" s="30" t="s">
         <v>174</v>
       </c>
@@ -1289,20 +1335,20 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1"/>
+    <row r="5" spans="1:13" s="4" customFormat="1"/>
+    <row r="6" spans="1:13" s="1" customFormat="1"/>
+    <row r="7" spans="1:13">
       <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="E10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="E15">
         <v>64</v>
       </c>
@@ -1316,54 +1362,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5">
       <c r="E17" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5">
       <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5">
       <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" s="1" customFormat="1"/>
+    <row r="24" spans="5:5" s="1" customFormat="1"/>
+    <row r="30" spans="5:5">
       <c r="E30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:5">
       <c r="E31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:5">
       <c r="E32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30">
       <c r="E33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30">
       <c r="E34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30">
       <c r="E35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -1407,7 +1453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1442,7 +1488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30">
       <c r="E45" s="7" t="s">
         <v>172</v>
       </c>
@@ -1513,7 +1559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30">
       <c r="E46" t="s">
         <v>4</v>
       </c>
@@ -1584,7 +1630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30">
       <c r="E47" s="7" t="s">
         <v>164</v>
       </c>
@@ -1655,7 +1701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30">
       <c r="E48" t="s">
         <v>54</v>
       </c>
@@ -1726,7 +1772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:30">
       <c r="E49" s="7" t="s">
         <v>165</v>
       </c>
@@ -1797,7 +1843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:30">
       <c r="E50" t="s">
         <v>62</v>
       </c>
@@ -1868,7 +1914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:30">
       <c r="E51" s="7" t="s">
         <v>166</v>
       </c>
@@ -1939,7 +1985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:30">
       <c r="E52" t="s">
         <v>74</v>
       </c>
@@ -2010,7 +2056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:30">
       <c r="E53" s="7" t="s">
         <v>167</v>
       </c>
@@ -2081,7 +2127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:30">
       <c r="D54" s="22" t="s">
         <v>88</v>
       </c>
@@ -2155,7 +2201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:30">
       <c r="E55" s="7" t="s">
         <v>168</v>
       </c>
@@ -2220,7 +2266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:30">
       <c r="H56" s="3" t="s">
         <v>39</v>
       </c>
@@ -2279,7 +2325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:30">
       <c r="E57" s="7" t="s">
         <v>169</v>
       </c>
@@ -2344,7 +2390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:30">
       <c r="H58" s="3" t="s">
         <v>39</v>
       </c>
@@ -2403,7 +2449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:30">
       <c r="E59" s="7" t="s">
         <v>170</v>
       </c>
@@ -2445,7 +2491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:30">
       <c r="H60" s="3" t="s">
         <v>39</v>
       </c>
@@ -2487,7 +2533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:30">
       <c r="E61" t="s">
         <v>173</v>
       </c>
@@ -2508,7 +2554,7 @@
       <c r="AC61" s="21"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:30">
       <c r="H62" s="3"/>
       <c r="I62" s="28" t="s">
         <v>5</v>
@@ -2526,7 +2572,7 @@
       <c r="AC62" s="21"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:30">
       <c r="E63" s="7" t="s">
         <v>171</v>
       </c>
@@ -2564,7 +2610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:30">
       <c r="H64" s="3"/>
       <c r="J64" s="3"/>
       <c r="L64" s="3"/>
@@ -2577,7 +2623,7 @@
       <c r="AB64" s="3"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30">
       <c r="H65" s="3"/>
       <c r="J65" s="3"/>
       <c r="L65" s="3"/>
@@ -2590,7 +2636,7 @@
       <c r="AB65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30">
       <c r="H66" s="3"/>
       <c r="J66" s="3"/>
       <c r="L66" s="3"/>
@@ -2603,7 +2649,7 @@
       <c r="AB66" s="3"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30">
       <c r="H67" s="3"/>
       <c r="J67" s="3"/>
       <c r="L67" s="3"/>
@@ -2616,7 +2662,7 @@
       <c r="AB67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30">
       <c r="C68" s="8" t="s">
         <v>114</v>
       </c>
@@ -2682,7 +2728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" s="1" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>115</v>
       </c>
@@ -2726,39 +2772,39 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" s="1" customFormat="1"/>
+    <row r="79" spans="1:30">
       <c r="E79" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30">
       <c r="E80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:6">
       <c r="E81" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:6">
       <c r="F83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:6" s="1" customFormat="1"/>
+    <row r="87" spans="5:6">
       <c r="E87" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:6">
       <c r="E88" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:6">
       <c r="E89" s="7" t="s">
         <v>9</v>
       </c>
@@ -2766,17 +2812,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:6">
       <c r="E90" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:6">
       <c r="E91" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:6">
       <c r="E92" s="7" t="s">
         <v>12</v>
       </c>
@@ -2784,27 +2830,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:6">
       <c r="E93" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:6">
       <c r="E94" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:6">
       <c r="E95" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:6">
       <c r="E96" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:6">
       <c r="E97" s="7" t="s">
         <v>17</v>
       </c>
@@ -2812,7 +2858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:6">
       <c r="E98" s="7" t="s">
         <v>18</v>
       </c>
@@ -2820,62 +2866,62 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:6">
       <c r="E99" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:6">
       <c r="E100" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:6">
       <c r="E101" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:6">
       <c r="E102" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:6">
       <c r="E103" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:6">
       <c r="E104" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:6">
       <c r="E105" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:6" s="1" customFormat="1">
       <c r="E110" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:5">
       <c r="E113" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:5">
       <c r="E115" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:5">
       <c r="E116" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="5:5" s="1" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="E17">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
@@ -2897,7 +2943,7 @@
       <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
@@ -2908,7 +2954,7 @@
     <col min="12" max="12" width="1.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="30" customFormat="1">
       <c r="A1" s="30" t="s">
         <v>175</v>
       </c>
@@ -2949,20 +2995,20 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1"/>
+    <row r="5" spans="1:13" s="4" customFormat="1"/>
+    <row r="6" spans="1:13" s="1" customFormat="1"/>
+    <row r="7" spans="1:13">
       <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="E10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="E15">
         <v>64</v>
       </c>
@@ -2976,54 +3022,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5">
       <c r="E17" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5">
       <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5">
       <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" s="1" customFormat="1"/>
+    <row r="24" spans="5:5" s="1" customFormat="1"/>
+    <row r="30" spans="5:5">
       <c r="E30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:5">
       <c r="E31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:5">
       <c r="E32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30">
       <c r="E33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30">
       <c r="E34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30">
       <c r="E35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -3067,7 +3113,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3102,7 +3148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30">
       <c r="E45" s="7" t="s">
         <v>172</v>
       </c>
@@ -3173,7 +3219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30">
       <c r="D46" s="7" t="s">
         <v>172</v>
       </c>
@@ -3247,7 +3293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30">
       <c r="E47" s="7" t="s">
         <v>164</v>
       </c>
@@ -3318,7 +3364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30">
       <c r="D48" s="7" t="s">
         <v>164</v>
       </c>
@@ -3392,7 +3438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30">
       <c r="E49" s="7" t="s">
         <v>165</v>
       </c>
@@ -3463,7 +3509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30">
       <c r="D50" s="7" t="s">
         <v>165</v>
       </c>
@@ -3537,7 +3583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30">
       <c r="E51" s="7" t="s">
         <v>166</v>
       </c>
@@ -3608,7 +3654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30">
       <c r="D52" s="7" t="s">
         <v>166</v>
       </c>
@@ -3682,7 +3728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30">
       <c r="E53" s="7" t="s">
         <v>167</v>
       </c>
@@ -3753,7 +3799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30">
       <c r="A54" s="22" t="s">
         <v>88</v>
       </c>
@@ -3830,7 +3876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30">
       <c r="E55" s="7" t="s">
         <v>168</v>
       </c>
@@ -3895,7 +3941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30">
       <c r="D56" s="7" t="s">
         <v>168</v>
       </c>
@@ -3957,7 +4003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30">
       <c r="E57" s="7" t="s">
         <v>169</v>
       </c>
@@ -4022,7 +4068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30">
       <c r="D58" s="7" t="s">
         <v>169</v>
       </c>
@@ -4084,7 +4130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30">
       <c r="E59" s="7" t="s">
         <v>170</v>
       </c>
@@ -4126,7 +4172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30">
       <c r="D60" s="7" t="s">
         <v>170</v>
       </c>
@@ -4171,7 +4217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30">
       <c r="E61" t="s">
         <v>173</v>
       </c>
@@ -4192,7 +4238,7 @@
       <c r="AC61" s="21"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30">
       <c r="D62" t="s">
         <v>173</v>
       </c>
@@ -4213,7 +4259,7 @@
       <c r="AC62" s="21"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30">
       <c r="E63" s="7" t="s">
         <v>171</v>
       </c>
@@ -4251,7 +4297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30">
       <c r="D64" s="7" t="s">
         <v>171</v>
       </c>
@@ -4267,7 +4313,7 @@
       <c r="AB64" s="3"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30">
       <c r="H65" s="3"/>
       <c r="J65" s="3"/>
       <c r="L65" s="3"/>
@@ -4280,7 +4326,7 @@
       <c r="AB65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30">
       <c r="H66" s="3"/>
       <c r="J66" s="3"/>
       <c r="L66" s="3"/>
@@ -4293,7 +4339,7 @@
       <c r="AB66" s="3"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30">
       <c r="H67" s="3"/>
       <c r="J67" s="3"/>
       <c r="L67" s="3"/>
@@ -4306,7 +4352,7 @@
       <c r="AB67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30">
       <c r="C68" s="8" t="s">
         <v>114</v>
       </c>
@@ -4372,7 +4418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" s="1" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>115</v>
       </c>
@@ -4416,39 +4462,39 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" s="1" customFormat="1"/>
+    <row r="79" spans="1:30">
       <c r="E79" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30">
       <c r="E80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:6">
       <c r="E81" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:6">
       <c r="F83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:6" s="1" customFormat="1"/>
+    <row r="87" spans="5:6">
       <c r="E87" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:6">
       <c r="E88" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:6">
       <c r="E89" s="7" t="s">
         <v>9</v>
       </c>
@@ -4456,17 +4502,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:6">
       <c r="E90" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:6">
       <c r="E91" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:6">
       <c r="E92" s="7" t="s">
         <v>12</v>
       </c>
@@ -4474,27 +4520,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:6">
       <c r="E93" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:6">
       <c r="E94" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:6">
       <c r="E95" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:6">
       <c r="E96" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:6">
       <c r="E97" s="7" t="s">
         <v>17</v>
       </c>
@@ -4502,7 +4548,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:6">
       <c r="E98" s="7" t="s">
         <v>18</v>
       </c>
@@ -4510,62 +4556,62 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:6">
       <c r="E99" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:6">
       <c r="E100" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:6">
       <c r="E101" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:6">
       <c r="E102" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:6">
       <c r="E103" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:6">
       <c r="E104" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:6">
       <c r="E105" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:6" s="1" customFormat="1">
       <c r="E110" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:5">
       <c r="E113" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:5">
       <c r="E115" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:5">
       <c r="E116" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="5:5" s="1" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="E17">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
@@ -4584,10 +4630,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="42.5" customWidth="1"/>
@@ -4599,7 +4645,7 @@
     <col min="18" max="18" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="30" customFormat="1">
       <c r="A1" s="30" t="s">
         <v>175</v>
       </c>
@@ -4661,139 +4707,160 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1"/>
+    <row r="5" spans="1:20" s="4" customFormat="1"/>
+    <row r="6" spans="1:20" s="1" customFormat="1"/>
+    <row r="7" spans="1:20">
       <c r="E7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="19">
+      <c r="B10" s="37" t="s">
+        <v>186</v>
+      </c>
       <c r="E10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="19">
+      <c r="B11" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19">
+      <c r="B12" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="32">
+      <c r="B13" s="37" t="s">
+        <v>189</v>
+      </c>
       <c r="E13" s="36" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="19">
+      <c r="B14" s="37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="5:5" ht="32" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:5" ht="32">
       <c r="E17" s="35" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="32" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:5" ht="32">
       <c r="E18" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="5:5" ht="32" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:5" ht="32">
       <c r="E19" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="32" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:5" ht="32">
       <c r="E20" s="34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5">
       <c r="E21" s="28"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5">
       <c r="E22" s="28"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5">
       <c r="E23" s="28"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5">
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5">
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5">
       <c r="E26" s="28"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:5">
       <c r="E27" s="28">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:5">
       <c r="E28" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:5">
       <c r="E29" s="31">
         <v>45873</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:5">
       <c r="E30" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:5">
       <c r="E31" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:5">
       <c r="E32" s="28"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5">
       <c r="E33" s="33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5">
       <c r="E34" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:5">
       <c r="E35" s="28"/>
     </row>
-    <row r="37" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:5" s="1" customFormat="1"/>
+    <row r="38" spans="5:5" s="1" customFormat="1"/>
+    <row r="44" spans="5:5">
       <c r="E44" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:5">
       <c r="E45" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:5">
       <c r="E46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:5">
       <c r="E47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:5">
       <c r="E48" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="E49" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="1" customFormat="1">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
@@ -4825,7 +4892,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
@@ -4854,7 +4921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="C59" s="7" t="s">
         <v>176</v>
       </c>
@@ -4895,7 +4962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="C60" s="7" t="s">
         <v>176</v>
       </c>
@@ -4936,7 +5003,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="C61" s="7" t="s">
         <v>176</v>
       </c>
@@ -4977,7 +5044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="C62" s="7" t="s">
         <v>176</v>
       </c>
@@ -5018,7 +5085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" s="22" t="s">
         <v>88</v>
       </c>
@@ -5062,7 +5129,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="C64" s="7" t="s">
         <v>176</v>
       </c>
@@ -5094,7 +5161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="C65" s="7" t="s">
         <v>176</v>
       </c>
@@ -5126,7 +5193,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="C66" s="7" t="s">
         <v>176</v>
       </c>
@@ -5141,7 +5208,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="C67" s="7" t="s">
         <v>176</v>
       </c>
@@ -5154,7 +5221,7 @@
       <c r="I67" s="28"/>
       <c r="O67" s="21"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="C68" s="7" t="s">
         <v>176</v>
       </c>
@@ -5162,7 +5229,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="C72" s="8" t="s">
         <v>114</v>
       </c>
@@ -5195,7 +5262,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" s="1" customFormat="1">
       <c r="A80" s="1" t="s">
         <v>115</v>
       </c>
@@ -5227,39 +5294,39 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:6" s="1" customFormat="1"/>
+    <row r="83" spans="5:6">
       <c r="E83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:6">
       <c r="E84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:6">
       <c r="E85" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:6">
       <c r="F87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:6" s="1" customFormat="1"/>
+    <row r="91" spans="5:6">
       <c r="E91" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:6">
       <c r="E92" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:6">
       <c r="E93" s="7" t="s">
         <v>9</v>
       </c>
@@ -5267,17 +5334,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:6">
       <c r="E94" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:6">
       <c r="E95" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:6">
       <c r="E96" s="7" t="s">
         <v>12</v>
       </c>
@@ -5285,27 +5352,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:6">
       <c r="E97" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:6">
       <c r="E98" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:6">
       <c r="E99" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:6">
       <c r="E100" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:6">
       <c r="E101" s="7" t="s">
         <v>17</v>
       </c>
@@ -5313,7 +5380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:6">
       <c r="E102" s="7" t="s">
         <v>18</v>
       </c>
@@ -5321,62 +5388,62 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:6">
       <c r="E103" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:6">
       <c r="E104" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:6">
       <c r="E105" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:6">
       <c r="E106" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:6">
       <c r="E107" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:6">
       <c r="E108" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:6">
       <c r="E109" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:5" s="1" customFormat="1">
       <c r="E114" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:5">
       <c r="E117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:5">
       <c r="E119" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:5">
       <c r="E120" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="5:5" s="1" customFormat="1"/>
   </sheetData>
   <conditionalFormatting sqref="E31">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -5398,7 +5465,7 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="3" width="46.83203125" customWidth="1"/>
@@ -5409,7 +5476,7 @@
     <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16384" s="30" customFormat="1">
       <c r="A1" s="30" t="s">
         <v>175</v>
       </c>
@@ -5465,8 +5532,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16384" s="1" customFormat="1"/>
+    <row r="4" spans="1:16384" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
@@ -5492,7 +5559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16384" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -5515,7 +5582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16384">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -54669,7 +54736,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16384" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>177</v>
       </c>
@@ -54695,10 +54762,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16384">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16384">
       <c r="A11" s="7" t="s">
         <v>176</v>
       </c>
@@ -54739,7 +54806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16384">
       <c r="A12" s="7" t="s">
         <v>176</v>
       </c>
@@ -54780,7 +54847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16384">
       <c r="A13" s="7" t="s">
         <v>176</v>
       </c>
@@ -54821,7 +54888,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16384">
       <c r="A14" s="7" t="s">
         <v>176</v>
       </c>
@@ -54862,7 +54929,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16384">
       <c r="A15" s="7" t="s">
         <v>176</v>
       </c>
@@ -54903,7 +54970,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16384">
       <c r="A16" s="7" t="s">
         <v>176</v>
       </c>
@@ -54935,7 +55002,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
         <v>176</v>
       </c>
@@ -54967,7 +55034,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
         <v>176</v>
       </c>
@@ -54982,7 +55049,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
         <v>176</v>
       </c>
@@ -54995,7 +55062,7 @@
       <c r="G19" s="28"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
         <v>176</v>
       </c>
@@ -55003,7 +55070,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
         <v>176</v>
       </c>
@@ -55011,16 +55078,16 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -55046,7 +55113,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>178</v>
       </c>
@@ -55075,7 +55142,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="8" t="s">
         <v>114</v>
       </c>
@@ -55108,7 +55175,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="1" customFormat="1">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -55134,39 +55201,39 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="1" customFormat="1"/>
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="C47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="C48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4">
       <c r="D50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" s="1" customFormat="1"/>
+    <row r="54" spans="3:4">
       <c r="C54" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4">
       <c r="C55" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4">
       <c r="C56" s="7" t="s">
         <v>9</v>
       </c>
@@ -55174,17 +55241,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4">
       <c r="C57" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4">
       <c r="C58" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:4">
       <c r="C59" s="7" t="s">
         <v>12</v>
       </c>
@@ -55192,27 +55259,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4">
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4">
       <c r="C61" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4">
       <c r="C62" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4">
       <c r="C63" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4">
       <c r="C64" s="7" t="s">
         <v>17</v>
       </c>
@@ -55220,7 +55287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4">
       <c r="C65" s="7" t="s">
         <v>18</v>
       </c>
@@ -55228,62 +55295,62 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4">
       <c r="C66" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4">
       <c r="C67" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:4">
       <c r="C68" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:4">
       <c r="C69" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:4">
       <c r="C70" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:4">
       <c r="C71" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:4">
       <c r="C72" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:4" s="1" customFormat="1">
       <c r="C77" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:4">
       <c r="C80" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3">
       <c r="C82" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3">
       <c r="C83" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="3:3" s="1" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D56" r:id="rId1" xr:uid="{6BF2E2AB-8307-EC47-9472-D676CAB972F3}"/>
@@ -55301,249 +55368,249 @@
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:5" s="1" customFormat="1"/>
+    <row r="9" spans="5:5">
       <c r="E9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:5">
       <c r="E10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:5">
       <c r="E11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:5">
       <c r="E12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:5">
       <c r="E13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:5">
       <c r="E14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:5">
       <c r="E15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:5">
       <c r="E16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5">
       <c r="E17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5">
       <c r="E18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5">
       <c r="E19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5">
       <c r="E20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5">
       <c r="E21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5">
       <c r="E22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5">
       <c r="E23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5">
       <c r="E24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5">
       <c r="E25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5">
       <c r="E26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:5">
       <c r="E27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:5">
       <c r="E28" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:5">
       <c r="E29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:5">
       <c r="E30" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:5">
       <c r="E31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:5">
       <c r="E32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5">
       <c r="E33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5">
       <c r="E34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:5">
       <c r="E35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:5">
       <c r="E36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:5">
       <c r="E37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:5">
       <c r="E38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:5">
       <c r="E39" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5">
       <c r="E40" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:5">
       <c r="E41" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:5">
       <c r="E42" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:5">
       <c r="E43" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:5">
       <c r="E44" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:5">
       <c r="E46" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:5">
       <c r="E48" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5">
       <c r="E50" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5">
       <c r="E52" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:5">
       <c r="E54" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:5">
       <c r="E56" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:5">
       <c r="E58" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:5">
       <c r="E59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:5">
       <c r="E60" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:5">
       <c r="E61" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:5">
       <c r="E62" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:5">
       <c r="E63" t="s">
         <v>163</v>
       </c>
